--- a/5 семестр (Квантовая физика)/2.1/2.1.xlsx
+++ b/5 семестр (Квантовая физика)/2.1/2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonidbarinov/Desktop/latexlabs/5 семестр (Квантовая физика)/2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9975DF-6883-E245-97BF-DC781273CCF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C380E3C2-171A-C64A-A904-63720129AD44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{79E756F5-AE82-C948-863F-F9B8FD2FA90E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="8" xr2:uid="{79E756F5-AE82-C948-863F-F9B8FD2FA90E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
     <sheet name="Лист6" sheetId="6" r:id="rId6"/>
     <sheet name="Лист7" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист8" sheetId="8" r:id="rId8"/>
+    <sheet name="Лист9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>I, мкА</t>
   </si>
@@ -3947,7 +3949,7 @@
   <dimension ref="B1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J19"/>
+      <selection activeCell="B1" sqref="B1:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4562,7 +4564,7 @@
   <dimension ref="B2:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B2" sqref="B2:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4962,7 +4964,7 @@
   <dimension ref="B2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C35"/>
+      <selection activeCell="B2" sqref="B2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5250,7 +5252,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection sqref="A1:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5752,7 +5754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D192978-1157-654B-9C36-6F549213019B}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -6422,8 +6424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA7E69D-4F51-D94F-A4B5-C5C48F9EC19F}">
   <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6793,4 +6795,1101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66CA268-7F14-1F4E-ADBE-089BF71435E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2804A4D-3F3A-9B4C-BD4A-8DC8770EBD93}">
+  <dimension ref="B2:G70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6.72</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>9.27</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10.92</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>13.32</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>13.25</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>17.47</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>9.48</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>14.53</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>18.66</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>12.18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>16.13</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>19.88</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>17.62</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>21.36</v>
+      </c>
+      <c r="G10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>15.45</v>
+      </c>
+      <c r="C11" s="1">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>23.15</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>16.14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>20.23</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>24.37</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>16.71</v>
+      </c>
+      <c r="C13" s="1">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>20.94</v>
+      </c>
+      <c r="E13">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>24.99</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>17.39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>21.67</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>25.97</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>17.97</v>
+      </c>
+      <c r="C15" s="1">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>22.27</v>
+      </c>
+      <c r="E15">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>27.08</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>22.82</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>28.05</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>20.27</v>
+      </c>
+      <c r="C17" s="1">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>23.5</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>31.34</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>20.94</v>
+      </c>
+      <c r="C18" s="1">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>23.78</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>34.67</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>21.79</v>
+      </c>
+      <c r="C19" s="1">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>24.03</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="G19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>22.31</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>24.34</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>37.18</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="C21" s="1">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="G21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>25.91</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="G22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>23.32</v>
+      </c>
+      <c r="C23" s="1">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>26.73</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>43.4</v>
+      </c>
+      <c r="G23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>23.45</v>
+      </c>
+      <c r="C24" s="1">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>27.48</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>46.14</v>
+      </c>
+      <c r="G24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23.67</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>28.82</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>49.22</v>
+      </c>
+      <c r="G25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>23.94</v>
+      </c>
+      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>31.26</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>51.73</v>
+      </c>
+      <c r="G26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25.11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>56.27</v>
+      </c>
+      <c r="G27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>25.45</v>
+      </c>
+      <c r="C28" s="1">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>34.35</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>59.6</v>
+      </c>
+      <c r="G28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>26.08</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="E29">
+        <v>47</v>
+      </c>
+      <c r="F29">
+        <v>61.99</v>
+      </c>
+      <c r="G29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>26.72</v>
+      </c>
+      <c r="C30" s="1">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>37.28</v>
+      </c>
+      <c r="E30">
+        <v>48</v>
+      </c>
+      <c r="F30">
+        <v>66.33</v>
+      </c>
+      <c r="G30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>27.96</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>40.6</v>
+      </c>
+      <c r="E31">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>70.44</v>
+      </c>
+      <c r="G31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>29.54</v>
+      </c>
+      <c r="C32" s="1">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>41.78</v>
+      </c>
+      <c r="E32">
+        <v>44</v>
+      </c>
+      <c r="F32">
+        <v>74.97</v>
+      </c>
+      <c r="G32">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>44.06</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>76.78</v>
+      </c>
+      <c r="G33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>34.65</v>
+      </c>
+      <c r="C34" s="1">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>47.67</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>79</v>
+      </c>
+      <c r="G34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>36.79</v>
+      </c>
+      <c r="C35" s="1">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>49.16</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>80.61</v>
+      </c>
+      <c r="G35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>40.28</v>
+      </c>
+      <c r="C36" s="1">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>51.44</v>
+      </c>
+      <c r="E36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>36.24</v>
+      </c>
+      <c r="C37" s="1">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>55.28</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="C38" s="1">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>60.86</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>42.26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>71.91</v>
+      </c>
+      <c r="E39">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>44.69</v>
+      </c>
+      <c r="C40" s="1">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>75.16</v>
+      </c>
+      <c r="E40">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>49.67</v>
+      </c>
+      <c r="C42" s="1">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>77.89</v>
+      </c>
+      <c r="E42">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>52.39</v>
+      </c>
+      <c r="C43" s="1">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>76.25</v>
+      </c>
+      <c r="E43">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>53.76</v>
+      </c>
+      <c r="C44" s="1">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>79.319999999999993</v>
+      </c>
+      <c r="E44">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>55.21</v>
+      </c>
+      <c r="C45" s="1">
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <v>61.71</v>
+      </c>
+      <c r="E45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>71</v>
+      </c>
+      <c r="D46">
+        <v>63.2</v>
+      </c>
+      <c r="E46">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1">
+        <v>73</v>
+      </c>
+      <c r="D47">
+        <v>65.44</v>
+      </c>
+      <c r="E47">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>57.88</v>
+      </c>
+      <c r="C48" s="1">
+        <v>75</v>
+      </c>
+      <c r="D48">
+        <v>67.89</v>
+      </c>
+      <c r="E48">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>58.57</v>
+      </c>
+      <c r="C49" s="1">
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <v>69.12</v>
+      </c>
+      <c r="E49">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>60.06</v>
+      </c>
+      <c r="C50" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>60.7</v>
+      </c>
+      <c r="C51" s="1">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>61.95</v>
+      </c>
+      <c r="C52" s="1">
+        <v>81</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>63.16</v>
+      </c>
+      <c r="C53" s="1">
+        <v>82</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>64.37</v>
+      </c>
+      <c r="C54" s="1">
+        <v>83</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>65.67</v>
+      </c>
+      <c r="C55" s="1">
+        <v>84</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="C56" s="1">
+        <v>86</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="C57" s="1">
+        <v>87</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>69.72</v>
+      </c>
+      <c r="C58" s="1">
+        <v>88</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>71.45</v>
+      </c>
+      <c r="C59" s="1">
+        <v>90</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>72.92</v>
+      </c>
+      <c r="C60" s="1">
+        <v>92</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="C61" s="1">
+        <v>94</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>75.78</v>
+      </c>
+      <c r="C62" s="1">
+        <v>96</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="C63" s="1">
+        <v>98</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>77.83</v>
+      </c>
+      <c r="C64" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="C65" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>77.58</v>
+      </c>
+      <c r="C66" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <v>76.48</v>
+      </c>
+      <c r="C67" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
+        <v>75.739999999999995</v>
+      </c>
+      <c r="C68" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="1">
+        <v>75.31</v>
+      </c>
+      <c r="C69" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <v>77.72</v>
+      </c>
+      <c r="C70" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>